--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/6_Amasya_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/6_Amasya_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6920E8A8-892A-4A44-BC6C-B785C6D8358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B86D2D4-E384-425E-8567-3876AFC7D79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="658" xr2:uid="{0C61A97B-45F4-4630-893F-CD8C66028A1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{42BAAAC3-A5B7-41FA-96CD-BBAA487564F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -985,15 +985,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{912DEE13-EFA7-4E69-A860-101BB69D4BB5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{49EF2D5B-F237-4F8A-A1BD-37C6FD3FF4C4}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7F62D6FE-E27C-4096-9AF7-CF40E85E6516}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{26D15904-913A-4484-8635-6BD9435BF3C9}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{709B2B5D-C5B6-4A43-AD00-8010BB7ECE78}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{D892E442-8C94-42E3-BC59-BF1EAE2844F8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{4FD61B18-030C-45E7-BA75-CD7F467D2D8D}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{82BCDB18-6A23-432A-8160-CC6706D24441}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{04272F30-C418-421D-A990-C51DA0E89BB0}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{25869DEF-B879-4BE9-A9C9-9FE758C6381A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A02757D2-4022-486A-A93D-883F7427B925}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{43BD4B11-CC57-4C5A-9A14-14B2AE5F7312}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{D6A1DA5F-4811-46A0-A312-686D0242C9EC}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{39A09148-FCD7-465C-A0B5-3751B3895991}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{D707CAB2-D196-4D5F-9350-287D288FD25C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{027A8C80-27F5-4BDF-8897-CBAF2D5B8508}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{81A9BA1C-1F85-4F71-A9A5-ECC59BA92ACC}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{7D717284-8E83-423D-A447-B9039DC43579}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81068CC7-084F-4C5B-8062-7041C05751FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC513396-1682-4099-BFA1-03C5E32B85ED}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2644,17 +2644,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C538956-B240-4023-91FD-A94C4FCDE15D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EB04C11-2ED9-4F6F-B4CC-084FA0D825B2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EBE11823-FB91-4BF1-ABEE-F81C6CCBE680}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7944BD6D-C49E-4BD8-9268-B622DFB16545}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3BEDDEF8-8BB3-4422-92B9-71E9A72E44FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CBA0B5DD-FBD5-42A9-9F38-32E96D32DC27}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9544FFDB-DF17-4516-9116-6880B948EAB4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E55D5CF8-8A6F-4216-B9E4-F791C3FA02E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8BB9083E-7CAA-46D5-BF95-283CEE6F4943}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8355A115-CB3F-4BE5-8038-67EE05E01B6F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1AEF7E5-BBCE-4455-86F3-6461681DD4BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CADFA47A-5227-41CE-9F98-366D571A0123}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08710B39-7216-44A1-B159-D7AD5978782B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9917B47F-972E-407B-A32B-D5E7D0D9AA19}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF38FECF-C39A-4E90-AD0B-2C7B3DE48E4F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11B115AF-AF40-44CB-AE3C-5CBA9DEA84BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{505E994F-247E-4400-AA5F-E1816362D592}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D53F0D07-AAD4-4781-A3E6-C913AA623CAE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{696EFDC7-421D-4FCB-9E5E-2ED6512AF31C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B6CD68D9-D373-4016-82D0-6FEB49F4838D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9B64F21E-AA75-45E5-B214-1B33E045EA5B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E091C704-21B1-4772-B707-D9756BF93A17}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2667,7 +2667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6871ABBE-0E43-404B-A3E1-7979A2183C5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5361D47-43FE-40E8-B3B6-CD4034E0F0B1}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -3934,17 +3934,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9A64261-D149-432F-BD3B-80A72EB868AC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9EBFC02-F579-4655-8787-0D17A7FC0A40}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8032EC02-B64F-4B39-A6F1-70AB5D9EBF58}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A06915DF-5528-4310-840C-B4509F9AA742}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7B4D503-E045-43AA-8F67-B9156C6BE82A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4DBCAAD-84CA-42CE-9E35-1C717912E525}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6DC53A86-33C7-4BAF-A6C3-1DC01D537319}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{21DB89BB-93E5-416B-A306-86412945898B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2C30CE76-E834-4918-BAC3-CAABECA03B86}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8BF9C826-D298-4D30-82C9-F90EC0DAB2CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{393FD65E-9925-494B-B2D9-7D1783384FBA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{447BF780-E451-44C9-94D5-0AAC1199B41A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9F05C5C-06BD-46C2-BC15-07275F53A7D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{122E6B1D-B2AD-487A-8E73-6A610545553C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{330F8C86-692C-4924-B3E8-D5F706D19056}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CAE96A55-7E4C-4B2C-B4F9-47402A0E74F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D22B0F35-91D6-48CD-AAAB-4E84E4632329}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{787615AC-FD66-4AAE-BFE4-3838BE734EBA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43A55985-6889-4D49-9208-E9DDDEB3AE09}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9D4C7F38-1B85-43DC-9801-ECB30DD761C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7A4A2BEB-3285-4E8E-8CAC-F4A4D742CACE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{501C5E6C-3B3A-4FFA-80FE-75243078200F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3957,7 +3957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEB86CB-1D18-418F-BFCC-A0CA766A319E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2841FC-8C5F-405A-B7E1-F5C2341F1BB5}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -5224,17 +5224,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94A45EB6-5D6A-48C0-9584-E8C686E5BA75}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{106A519A-C1FD-42F2-A4ED-808FD746FE0D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{93B660A9-7650-451D-836A-3F5CC76B5624}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{24E8A716-CD44-48A5-8401-27A93212BD4C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8C73124-3F87-4F4E-B793-7483AD77B86E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7521EE89-FCC8-4676-A31F-E101BAEA65F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{973397EF-5CE2-40D5-A7AF-11B9B2C0997D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49C38797-B16C-48D1-9CDF-5CAFF1D2059A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6326AAE6-CDEB-40B0-9316-FBFE0BA4735A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A21280CC-EE48-48F9-917C-6831DCAD1EF2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D12A2AEF-656C-4F55-B905-A4620D6E5C0B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AB6DF6D-88D5-4A86-A25C-832B195BB144}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F15303F-FDE8-4731-8E01-CB0653473A9E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D45573D4-DD20-4F57-87AE-8E0998E6DFC1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{041A3A37-7D45-4AE3-8B24-3A4875B56D33}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2EECC44A-579C-4734-A461-1193CE862718}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC881302-8A72-4B73-A891-4AF3E0309EA0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{810C13CB-E0A2-4017-B86D-F1C738B4951B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE6F13C4-8AD2-4C4B-A0B6-5C0FADDB2DA6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{78C8C27F-3087-4FC6-B0AD-F9E7C59D1653}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C78C70A0-9944-4CDA-86AE-FD444BBC674B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13C208EE-B533-4565-B304-2994AD63C998}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5247,7 +5247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F18584-83F3-4773-969C-562ABF1E350C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F0A7BD-BB74-4F86-9DCF-A279381B3017}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -6502,17 +6502,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFA11C8B-83BA-4640-809A-787721F7B5AC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21C264E6-8854-40E5-B6E5-9F520AB5BD4E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{25A64BBC-DBDF-4F3B-8559-4DDC89622825}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F6EC5C2-1B74-4532-8DE2-0ED778165229}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D3C29254-BD51-4D6D-9E8B-A9CD55D070EA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{13597BAD-F6A8-4A72-8767-8B6BBDD3917B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B11DD57A-75AD-4A3C-896F-2AD9D5ADA34B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0683B80-DB7A-4813-9BFD-767044B872CD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6A4B5075-81F0-4135-B0E1-5F9CA28C4AC3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0B13425B-3A3A-4FE4-8FE9-C04C2899CD0C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CFA6905-FD41-42BA-9C8F-005D4DE269F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AE18FF5-40CB-411E-88AB-31FCBF890035}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E464DB4-94BD-47D5-915D-4360694FD3FA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{74AAE5F5-D69E-4250-8A2E-7413F06CAB20}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A7500F91-FE40-483B-86A7-C6EF9B51D02A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB176F33-3856-477A-844D-C9EF41214E65}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8138247-A5CE-41D5-B1F4-5105BB69F2F5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A3E9906-2B76-48D1-A55C-D87C360104D6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F0642FD-7142-4608-BD0F-DD850B3AEA33}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E6268146-1CC1-48DD-B55D-63CF883F6EB0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DB8BDC46-91D8-4ECE-8579-D53A7BB81DA9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D096E08-B07B-4B90-A456-B97E4335A2C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6525,7 +6525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E1E7C-1CF3-4FAB-8818-44A73C9E7A5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484336B2-EE60-4ABD-AD28-562A567E3991}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7799,17 +7799,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECCCD8EF-3BC2-4169-8A6A-F5FBB4812DF7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E145BFB1-C454-4E5E-91D8-08446CAA2729}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3C366954-B3F5-4376-AC11-9AC25F32A254}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{79244B1B-B32F-4644-87B7-2FEEBA959DCD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C50A1D0-D286-4902-BA55-91B4B385E01F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E75E824C-8940-405A-BD87-902535514BB7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{87E7ACA9-F15C-457D-ACF0-A173B2A72DA4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8B61B3C-FF55-4452-8E14-308F7996C7FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5E438870-03E5-4697-BFE9-C3FBE1E7DBCC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D8C2F436-0269-4325-836E-1F6265056A28}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27C8D1BE-AB44-45AB-8E30-6A29F30D5648}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D391B514-F50F-45FA-A0B0-A3392B27E2A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBF67875-B83C-43E8-B7A6-FD0C7C03A539}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E4C50AAE-E85B-4596-A8AF-638D1FB57D4F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D575E4CD-6E32-410D-85DF-EAEF869CE749}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9690A25F-8571-4D84-BC2C-49E94187D619}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BDBEAC50-ACA1-4AA8-923F-953EA83C1C87}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB21CA6D-25AC-4E24-B987-96116A07F89A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E660FEE-9B52-4633-B803-02C5A81D3E7C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C4276ECB-761A-4E00-BA7B-789753F024FC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E7DE97BF-CC1F-4917-A2BB-FFF96FB7D74C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6C00FD6-C606-43B1-B85F-5B2222C7172C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7822,7 +7822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4B691B-4049-4094-AE28-46B700A7DDA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A09C88-DF02-4289-98A1-DFDF66972FAA}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9096,17 +9096,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6E19C2E-AD5C-4510-8BE7-004F54B2F143}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3526967F-06B6-4C2C-98FD-67833F7FB9B5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F7560CDE-BDBE-4677-B0B7-421C1B6DC15C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E910FD95-6225-4C82-87B7-AA8FFB8696A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6536F330-C41B-422E-B101-2D50618BB85B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{875EB5E0-CB64-49BD-A9EF-EA60E806BFDA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C6A6014-079F-4CE3-8FF9-79665307D29F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B83C7E00-F932-4BA5-8915-7C9343FAD8F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A6D3E982-E80F-491A-9F79-9890000979B1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{435DCE74-DD4D-45CE-8037-F81077E37649}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C229458-AC55-4953-A4D2-DEA2E83635EF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF1D28C7-20F3-455F-AEC4-25B201B0FFE4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C7B0E9F-B476-4351-8A6E-ADF00A3033C9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F51C20CE-58D4-44CE-BA5A-F0B2857300D9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1F70179F-6414-45C1-AA72-7F251F094D7F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BBB7A15D-BCD0-4B4E-BB93-556270C94DA6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F484B6D-F4F5-48B7-861F-0DF71772E537}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2621B88A-573B-4069-B190-2A5FD6644C59}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{439FFC2C-7C87-42D3-9DDB-607342F028CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0107E336-8442-4AB9-BBB4-55D01EAAEC4A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{008B330D-56EC-4241-8FB0-5D1CED1ADA9B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24568B24-FC65-4458-8E9C-54EDA9167F23}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9119,7 +9119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DE8107-CE8D-4996-8A00-E99FC456C24D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1568A94D-A9D7-4AC3-9CD6-A4C31FAE0B99}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10389,17 +10389,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA279549-ECCE-406E-9B51-6CCDE23D0A3D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63E19098-BBBC-4613-A3D0-5709E18A5576}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{591A8377-CCCC-4697-9BAB-68B3243C842D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F85B90DC-1F31-4171-BDE3-E865E8F7751C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18BFB379-0C75-4768-B219-84FD8B83BE23}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99DB5AE8-3F6A-4A11-ACE8-255CB6E5C48C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{427CC244-924F-420F-9116-FC8456A50D64}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E04CDC57-C446-49F0-861B-AF03A86ABA16}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{021DCAAC-9822-4D35-A7D7-3F0830BDCEA6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1EBE20AC-B94F-49AC-BF55-ED7B76C647AF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F65ED922-A194-48E4-9F9C-0EFFECC1E9B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30E6F10D-7ABE-4B6F-B09E-95D65588C267}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9A9838C-74EC-42DD-90FE-ED630E6297BD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EB58E11B-7E92-4B7B-AFCD-5E5230285B65}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{766D327E-5A89-4646-BD48-67DDB8E1F72B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4200FC8-2655-4A37-8DC7-B9C653683225}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EFDCA668-693D-4DE6-AF5C-2DB560287CE0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52140315-5F85-4226-95F3-9AC0C064A385}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3E6AF61-C8CA-4B94-8094-3E38DD619B95}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FFD9C81E-D433-4B8B-BBF3-C7E47EEFB2F4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{556686AC-C183-4A48-AEB3-0EE69317B248}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC43FC4D-06B2-4724-A077-4AF7D6296FDE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10412,7 +10412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E56726C-590F-48D4-9D6F-DFFE69E339BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCC7F6C-83CF-40F6-91D4-8031E5B9863F}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11682,17 +11682,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C184CA1-1830-45BF-BAB6-9A0DDCD5614C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16F94226-ECF8-4C7D-9A93-8B25EE166C69}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CEF2E7F5-8E16-442C-B50D-D63EA7FD3B4A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DE79C05C-E713-420F-B2D3-3F277BD2928C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{667F78D7-1101-4971-9740-B1EBAC772F6B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A38536BC-97B7-423C-A45B-F7CB96172322}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F57838C-C5B2-4186-A8DB-C5C26DEC3039}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3E28A18-DB49-4B30-874E-AC2F660E74C1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{32A489CB-3445-44D1-9210-137648DBCC3E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F0E4E6E1-3B58-43B3-89B7-4DCACB99ACDE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87DEBCB4-DE4A-40BB-AB7E-F3C3A15B9A44}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF9A67B2-E4D4-4C05-B40E-4D90112A2A2C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35AA3D31-89E2-4CF9-A537-62E6A8DCE1E8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{393FDEEC-4815-476A-952B-C4DF6A3C4BA0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F55DCC1C-2323-4F1F-A0B0-1B72F4CA195F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38060EB5-DBB0-4E42-A5DC-8171E81ACEDE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6879942D-86BF-43A3-8FF7-82119C2518B4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B506BC3-8076-4412-BE96-B2D4E76B0403}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95C1F2F8-0DAA-4959-A397-C7FFCA6697A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F494A76E-10EA-4329-85D6-B6704E93F7CD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D4D2AB43-FC29-42A9-8F37-A614AE58EA6F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F8B9650B-EEEB-43D4-96C8-351FD91FAC74}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11705,7 +11705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603A1C8B-F41D-4787-A36B-08651CB5E652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5105C2CA-92FB-45BB-A9EB-026F635AD5C8}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12971,17 +12971,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A28921B4-8EC3-406D-B5CA-EF0D46EA773C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDE65FCA-949A-43CA-B50C-E5C62FA78738}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7530F41D-2846-40C3-B4BE-EFB46EE96E1C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{15583F0B-03E8-4B65-B067-78C646434C8B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5B0865C-E4A6-4957-B919-D011E9F4F7C2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E1A58EE-AE3B-4C83-B7C7-007EE8DFEF6C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED7FC3ED-9BBD-4F57-B7F3-5505C30D2A52}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EEC51B1-3743-48D0-B0A4-F195D3CBEFDC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DA66F3C5-C2D1-4E27-8FC8-CC95A5E7A992}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{06EC47B7-1244-4C0F-BCB9-5D724E0F4BBB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FEEA7C27-55F8-4642-B7A0-EC8DD86B0B5E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5AE5A0A-395F-4EC3-8BF4-8EC68325BE8C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70A1DD57-A0F6-445A-9AB4-6EB4A5D375CE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3EFB744C-967C-45FC-9C03-398DF115A242}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6E8105A8-64F1-4E2F-8347-CAA79B9ABB8E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D349BAFA-8DDC-45B6-BF68-993369D882F3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{38C727C2-99C6-4DF2-9A9C-5CE155B9D923}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91D8C06A-B2DF-4639-B127-4DB821DCD0F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FEF56AD6-BACF-4351-9800-E8CA3B06C5AF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{550EC510-1E60-456F-9249-369ACC7E8A09}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D43E5C2A-DBBE-4902-BFBF-DC144F8F2DD2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A2CF182-91E6-415E-948F-960BE7AC8DED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12994,7 +12994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCA0D26-41BE-4EF4-A1D6-DC2D0978FBDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89AA542-D661-49F4-84C8-F3A1249E5F0A}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14260,17 +14260,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3CA9E2A-227C-4E22-9D4F-DA45C1E3B27B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2EAA1AC-186F-455E-8D36-DCDECFF6A508}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D8A158DC-0D3D-498C-89BF-DB545BA68C54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3DE4CFF0-2E91-4629-A855-DDE7A1029B33}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A38889A-583B-4E51-9205-85EFA1BA6036}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A68B9DB-FDCA-45B2-9523-DAD80E88F22F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DCB9EFC-1AA7-4149-AEFE-87072712EAEA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB129E3D-7930-425D-B660-2845AB5B506F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FE588BC6-7A25-454D-8ED3-840BF2D0CB4D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B1C5AF8B-D94E-41D9-8812-46CF9B5F7844}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{426F6CB2-139C-40BD-A262-208D4843EE5B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FF16F30-45C8-4D01-8AD0-DC8DF2960234}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{051093B3-34AE-46F9-9D03-B7C0DE8C40DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D5DDFEFE-8A67-4180-951B-99B56C533DC0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7DBC46B0-375A-42B3-9566-D4E61B408F54}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E431A25B-F849-4711-B895-7389FFFEE071}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{504C386F-DC80-4028-8FFD-12F826BA3AF2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{809AF5EC-DE73-4547-ACAB-66D675D403D8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E71D8F36-4F4D-40B8-9C8C-5C295DFDE5D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8D336CE6-B5CA-4665-81AE-07B40F3B5E19}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9CD778D1-5432-4B10-A4A8-EE34D63B2378}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D63AC6B3-6091-42A1-96AC-1309A66BF5E4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14283,7 +14283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E467D649-D5E7-4BD9-AC88-D9F912C5DA2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55FD6D2-AEA2-4B73-BFDF-56EDF26C28AE}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -15550,17 +15550,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC734D69-B61A-4054-B1ED-19C73630BA66}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6012DE4-A26A-4717-9E40-B09404747A8C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC3ECC22-6C5C-4003-BE8E-7A58C2447D3A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{17D6209C-A4C4-498B-B88A-9CF3E70F1E00}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0081B1D3-931F-4EEF-BA63-DB5CC79DCDAC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6BE3E03E-BB86-42EE-AADE-BB458BFA6B8B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16F160AC-29FB-44EC-A169-B8DF4621A486}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C3E6E1A-1315-4C66-8C94-A55DD7643118}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A77D534B-B031-4A7E-A7BF-E2D88090F619}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{209BC708-014D-421D-8FD0-C12D5AE60ED0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE892372-13F6-4D1A-82F5-B543F91850BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C13FBAC-FA4E-428E-8A34-C84638C90622}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF416A75-F1E6-4372-9007-7DFA0BF0AC47}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B34C5D7-8E58-42A2-B169-E1F81984147D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B88F378F-21E7-4C7A-BF29-128158C49190}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C25726E3-1580-446E-BC04-EC90DBA7C1BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F0462A63-BBE8-4347-9C48-6B60C99654AE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F2238E3-065C-4B10-859F-860EBB56F520}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F1AA113-5EE5-43AD-8B3A-1E9AEAF2943F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DB980826-03EB-4131-BBC6-AB7A594E4340}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D20C41B1-EAE7-4C19-9923-C88DC4903B29}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03896389-E15D-440D-9750-C50BA10D75A6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15573,7 +15573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293CAE30-D462-4FEA-892B-2DDC9662F7B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6C15FB-AC28-47A0-A363-AA5DC396A686}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -16840,17 +16840,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CAB7B4CA-B95B-4A1D-8C37-B8108AF8E064}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4262784-3A1F-4C0C-9972-CF2FE6BB562B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{08D1AD85-730C-4D06-B86D-07DDA2EB139C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B17E955E-43FD-46B4-BA3D-1A67E42F4491}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED31A996-8360-4E6D-8533-261CA22D107B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F169E35-E78C-46A1-96FD-D2BB6BB4FD2E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC20D73A-44C8-4957-BF9C-F1F8C82AAD28}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A702E4FE-08D6-4735-92AE-3E0F0E3F4D6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BFB857B0-CA4E-4424-8651-211CAC066EE1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9FDEF57B-3F22-429F-8C5B-014AE8EBADD4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9511874-FF13-46FC-B6D0-3A8D5ED90618}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5ED624DB-EDB6-49FA-BE52-8BEBC7223E86}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A0EEEF1-DFF2-4023-872C-B2C3594EB722}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{62125776-6F33-40C4-8795-D7A97EB8CCC0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{68B27F0D-9C97-4EA6-9D1C-607ED937D65E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87F018A2-2624-4C23-A526-89A375545785}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62E4ACD8-0950-4D08-BBF2-FFD76781331A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{039C90DF-713F-49E4-9207-FD29BD67CFD9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17AEAB08-8955-4BCE-AA0D-9694BFD24A1F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5200728D-6733-4FA3-9086-801D379EEDEF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{898B3A6D-48EC-4478-AED8-38BE9DF083F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A26E844D-96AD-47FA-8C10-5EA95260AC0A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
